--- a/doc/Auto Stats.xlsx
+++ b/doc/Auto Stats.xlsx
@@ -485,7 +485,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
